--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF1ED8A-121E-4A15-ACD9-1FD4307265B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E967535-5F16-4007-95E3-ACCC0C5EC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>タスク</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>regstration.jsp</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>otherinf.jsp</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1365,47 +1373,47 @@
     <xf numFmtId="180" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="45" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="45" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2016,27 +2024,27 @@
   </sheetPr>
   <dimension ref="A1:BL47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.78515625" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.2109375" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
-    <col min="66" max="68" width="7.2109375"/>
-    <col min="69" max="70" width="8.42578125"/>
+    <col min="9" max="64" width="2.44140625" customWidth="1"/>
+    <col min="66" max="68" width="7.21875"/>
+    <col min="69" max="70" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2063,116 +2071,116 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="90">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="90"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="96"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +2730,7 @@
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
     </row>
-    <row r="8" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -2795,7 +2803,7 @@
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
     </row>
-    <row r="9" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2884,7 @@
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
     </row>
-    <row r="10" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -2957,7 +2965,7 @@
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
     </row>
-    <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="22" t="s">
         <v>18</v>
@@ -3036,7 +3044,7 @@
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
     </row>
-    <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="22" t="s">
         <v>19</v>
@@ -3115,7 +3123,7 @@
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
     </row>
-    <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="22"/>
       <c r="C13" s="15"/>
@@ -3181,7 +3189,7 @@
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
     </row>
-    <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="22" t="s">
         <v>20</v>
@@ -3258,7 +3266,7 @@
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
     </row>
-    <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +3339,7 @@
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
     </row>
-    <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="23" t="s">
         <v>16</v>
@@ -3410,7 +3418,7 @@
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
     </row>
-    <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="23" t="s">
         <v>17</v>
@@ -3489,7 +3497,7 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
     </row>
-    <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="23" t="s">
         <v>18</v>
@@ -3566,7 +3574,7 @@
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
     </row>
-    <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="23" t="s">
         <v>19</v>
@@ -3643,7 +3651,7 @@
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
     </row>
-    <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="23" t="s">
         <v>20</v>
@@ -3720,7 +3728,7 @@
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
     </row>
-    <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
@@ -3793,7 +3801,7 @@
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
     </row>
-    <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="24" t="s">
         <v>16</v>
@@ -3870,7 +3878,7 @@
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
     </row>
-    <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -3947,7 +3955,7 @@
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
     </row>
-    <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="24" t="s">
         <v>18</v>
@@ -4024,7 +4032,7 @@
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
     </row>
-    <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="24" t="s">
         <v>19</v>
@@ -4101,7 +4109,7 @@
       <c r="BK25" s="5"/>
       <c r="BL25" s="5"/>
     </row>
-    <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="24" t="s">
         <v>20</v>
@@ -4178,7 +4186,7 @@
       <c r="BK26" s="5"/>
       <c r="BL26" s="5"/>
     </row>
-    <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
@@ -4251,15 +4259,19 @@
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
     </row>
-    <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="79" t="s">
-        <v>26</v>
+      <c r="C28" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="79">
+        <v>45093</v>
       </c>
       <c r="F28" s="79" t="s">
         <v>26</v>
@@ -4326,15 +4338,19 @@
       <c r="BK28" s="5"/>
       <c r="BL28" s="5"/>
     </row>
-    <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="79" t="s">
-        <v>26</v>
+      <c r="C29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="79">
+        <v>45093</v>
       </c>
       <c r="F29" s="79" t="s">
         <v>26</v>
@@ -4401,7 +4417,7 @@
       <c r="BK29" s="5"/>
       <c r="BL29" s="5"/>
     </row>
-    <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="25" t="s">
         <v>18</v>
@@ -4476,7 +4492,7 @@
       <c r="BK30" s="5"/>
       <c r="BL30" s="5"/>
     </row>
-    <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="25" t="s">
         <v>19</v>
@@ -4551,7 +4567,7 @@
       <c r="BK31" s="5"/>
       <c r="BL31" s="5"/>
     </row>
-    <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
@@ -4626,7 +4642,7 @@
       <c r="BK32" s="5"/>
       <c r="BL32" s="5"/>
     </row>
-    <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="25"/>
       <c r="C33" s="21"/>
@@ -4692,17 +4708,17 @@
       <c r="BK33" s="5"/>
       <c r="BL33" s="5"/>
     </row>
-    <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38" t="str">
         <f t="shared" si="5"/>
@@ -4765,19 +4781,19 @@
       <c r="BK34" s="5"/>
       <c r="BL34" s="5"/>
     </row>
-    <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="90">
         <v>0</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -4837,19 +4853,19 @@
       <c r="BK35" s="5"/>
       <c r="BL35" s="5"/>
     </row>
-    <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="96">
+      <c r="D36" s="90">
         <v>0</v>
       </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="5"/>
@@ -4909,21 +4925,21 @@
       <c r="BK36" s="5"/>
       <c r="BL36" s="5"/>
     </row>
-    <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="90">
         <v>0.5</v>
       </c>
-      <c r="E37" s="97">
+      <c r="E37" s="91">
         <v>45092</v>
       </c>
-      <c r="F37" s="97">
+      <c r="F37" s="91">
         <v>45093</v>
       </c>
       <c r="G37" s="38"/>
@@ -4985,21 +5001,21 @@
       <c r="BK37" s="5"/>
       <c r="BL37" s="5"/>
     </row>
-    <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="90">
         <v>0.9</v>
       </c>
-      <c r="E38" s="97">
+      <c r="E38" s="91">
         <v>45093</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="91">
         <v>45093</v>
       </c>
       <c r="G38" s="38"/>
@@ -5061,19 +5077,19 @@
       <c r="BK38" s="5"/>
       <c r="BL38" s="5"/>
     </row>
-    <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="90">
         <v>0</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="5"/>
@@ -5133,19 +5149,19 @@
       <c r="BK39" s="5"/>
       <c r="BL39" s="5"/>
     </row>
-    <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="90">
         <v>0</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -5205,19 +5221,19 @@
       <c r="BK40" s="5"/>
       <c r="BL40" s="5"/>
     </row>
-    <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="96">
+      <c r="D41" s="90">
         <v>0</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="5"/>
@@ -5277,19 +5293,19 @@
       <c r="BK41" s="5"/>
       <c r="BL41" s="5"/>
     </row>
-    <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C42" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="90">
         <v>0</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="5"/>
@@ -5349,19 +5365,19 @@
       <c r="BK42" s="5"/>
       <c r="BL42" s="5"/>
     </row>
-    <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="90">
         <v>0</v>
       </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
       <c r="I43" s="5"/>
@@ -5421,7 +5437,7 @@
       <c r="BK43" s="5"/>
       <c r="BL43" s="5"/>
     </row>
-    <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>13</v>
       </c>
@@ -5494,29 +5510,29 @@
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="53"/>
       <c r="F46" s="54"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D44">
@@ -5595,90 +5611,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" style="56" customWidth="1"/>
     <col min="2" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="58"/>
     </row>
-    <row r="3" spans="1:2" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="61"/>
     </row>
-    <row r="4" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="63" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="56" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="56" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>42</v>
       </c>
@@ -5701,23 +5717,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6009,22 +6014,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6051,9 +6063,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E967535-5F16-4007-95E3-ACCC0C5EC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E42397-5F7C-4FEE-8C31-8E8081605DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -2026,7 +2026,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4273,13 +4273,13 @@
       <c r="E28" s="79">
         <v>45093</v>
       </c>
-      <c r="F28" s="79" t="s">
-        <v>26</v>
+      <c r="F28" s="79">
+        <v>45096</v>
       </c>
       <c r="G28" s="38"/>
-      <c r="H28" s="38" t="e">
+      <c r="H28" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4352,13 +4352,13 @@
       <c r="E29" s="79">
         <v>45093</v>
       </c>
-      <c r="F29" s="79" t="s">
-        <v>26</v>
+      <c r="F29" s="79">
+        <v>45096</v>
       </c>
       <c r="G29" s="38"/>
-      <c r="H29" s="38" t="e">
+      <c r="H29" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>

--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E42397-5F7C-4FEE-8C31-8E8081605DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47512F6-B393-4CC8-A281-C2BD5DFF7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -309,11 +309,60 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>regstration.jsp</t>
+    <t>RegistrationServlet.java</t>
+  </si>
+  <si>
+    <t>OtherinfServlet.java</t>
+  </si>
+  <si>
+    <t>UpdateServlet.java</t>
+  </si>
+  <si>
+    <t>TitleDao.java</t>
+  </si>
+  <si>
+    <t>Title.java</t>
+  </si>
+  <si>
+    <t>otherinf.jsp</t>
+  </si>
+  <si>
+    <t>update.jsp</t>
+  </si>
+  <si>
+    <t>registration.js</t>
+  </si>
+  <si>
+    <t>otherinf.js</t>
+  </si>
+  <si>
+    <t>update.js</t>
+  </si>
+  <si>
+    <t>registration.css</t>
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>otherinf.jsp</t>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>image</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1397,6 +1446,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1408,12 +1463,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2022,11 +2071,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2078,107 +2127,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2743,7 +2792,7 @@
       <c r="F8" s="69"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38" t="str">
-        <f t="shared" ref="H8:H44" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H51" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -4262,24 +4311,24 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="25" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="48">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E28" s="79">
-        <v>45093</v>
-      </c>
-      <c r="F28" s="79">
-        <v>45096</v>
+        <v>45092</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>26</v>
       </c>
       <c r="G28" s="38"/>
-      <c r="H28" s="38">
+      <c r="H28" s="38" t="e">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4341,24 +4390,22 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="25" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="E29" s="79">
-        <v>45093</v>
-      </c>
-      <c r="F29" s="79">
-        <v>45096</v>
+      <c r="D29" s="48"/>
+      <c r="E29" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>26</v>
       </c>
       <c r="G29" s="38"/>
-      <c r="H29" s="38">
+      <c r="H29" s="38" t="e">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4420,9 +4467,11 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="D30" s="48"/>
       <c r="E30" s="79" t="s">
         <v>26</v>
@@ -4495,12 +4544,16 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="79" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="79">
+        <v>45092</v>
       </c>
       <c r="F31" s="79" t="s">
         <v>26</v>
@@ -4570,20 +4623,24 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="79" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="48">
+        <v>1</v>
+      </c>
+      <c r="E32" s="79">
+        <v>45092</v>
+      </c>
+      <c r="F32" s="79">
+        <v>45092</v>
       </c>
       <c r="G32" s="38"/>
-      <c r="H32" s="38" t="e">
+      <c r="H32" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4644,11 +4701,21 @@
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
+      <c r="B33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="79">
+        <v>45093</v>
+      </c>
+      <c r="F33" s="79">
+        <v>45096</v>
+      </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="5"/>
@@ -4709,21 +4776,24 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="79">
+        <v>45093</v>
+      </c>
+      <c r="F34" s="79">
+        <v>45096</v>
+      </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H34" s="38"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -4783,17 +4853,15 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="90">
-        <v>0</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
+      <c r="B35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -4855,17 +4923,15 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="90">
-        <v>0</v>
-      </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
+      <c r="B36" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="5"/>
@@ -4927,21 +4993,15 @@
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
-      <c r="B37" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F37" s="91">
-        <v>45093</v>
-      </c>
+      <c r="B37" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="5"/>
@@ -5003,21 +5063,15 @@
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="90">
-        <v>0.9</v>
-      </c>
-      <c r="E38" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F38" s="91">
-        <v>45093</v>
-      </c>
+      <c r="B38" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="5"/>
@@ -5079,17 +5133,15 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
-      <c r="B39" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="90">
-        <v>0</v>
-      </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
+      <c r="B39" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="5"/>
@@ -5151,17 +5203,15 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
-      <c r="B40" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="90">
-        <v>0</v>
-      </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
+      <c r="B40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -5222,20 +5272,21 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="90">
-        <v>0</v>
-      </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
+      <c r="A41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5296,10 +5347,10 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="89" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D42" s="90">
         <v>0</v>
@@ -5368,10 +5419,10 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="89" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D43" s="90">
         <v>0</v>
@@ -5438,104 +5489,616 @@
       <c r="BL43" s="5"/>
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F44" s="91">
+        <v>45093</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+    </row>
+    <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="90">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F45" s="91">
+        <v>45093</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+    </row>
+    <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="90">
+        <v>0</v>
+      </c>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+    </row>
+    <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="90">
+        <v>0</v>
+      </c>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+    </row>
+    <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="90">
+        <v>0</v>
+      </c>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+    </row>
+    <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="90">
+        <v>0</v>
+      </c>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+    </row>
+    <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="90">
+        <v>0</v>
+      </c>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+    </row>
+    <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B51" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="str">
+      <c r="C51" s="50"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
-      <c r="AX44" s="7"/>
-      <c r="AY44" s="7"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
-      <c r="BC44" s="7"/>
-      <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
-      <c r="BF44" s="7"/>
-      <c r="BG44" s="7"/>
-      <c r="BH44" s="7"/>
-      <c r="BI44" s="7"/>
-      <c r="BJ44" s="7"/>
-      <c r="BK44" s="7"/>
-      <c r="BL44" s="7"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="53"/>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="55"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7"/>
+      <c r="AZ51" s="7"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
+      <c r="BC51" s="7"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7"/>
+      <c r="BF51" s="7"/>
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="7"/>
+      <c r="BI51" s="7"/>
+      <c r="BJ51" s="7"/>
+      <c r="BK51" s="7"/>
+      <c r="BL51" s="7"/>
+    </row>
+    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="53"/>
+      <c r="F53" s="54"/>
+    </row>
+    <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D44">
+  <conditionalFormatting sqref="D7:D51 E35">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5549,12 +6112,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL44">
+  <conditionalFormatting sqref="I5:BL51">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL44">
+  <conditionalFormatting sqref="I7:BL51">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5578,7 +6141,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="F19 F23:F24 E24" formula="1"/>
@@ -5599,7 +6162,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D44</xm:sqref>
+          <xm:sqref>D7:D51 E35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5717,12 +6280,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6014,29 +6588,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6063,13 +6630,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47512F6-B393-4CC8-A281-C2BD5DFF7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78519AF-ED2E-44B7-B4B2-A7E33C910F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1446,23 +1446,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2074,8 +2074,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2127,107 +2127,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -4859,9 +4859,15 @@
       <c r="C35" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="79"/>
+      <c r="D35" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="79">
+        <v>45093</v>
+      </c>
+      <c r="F35" s="79">
+        <v>45096</v>
+      </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -6085,20 +6091,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D51 E35">
+  <conditionalFormatting sqref="D7:D51">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6162,7 +6168,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D51 E35</xm:sqref>
+          <xm:sqref>D7:D51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6280,23 +6286,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6588,22 +6583,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6630,9 +6632,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78519AF-ED2E-44B7-B4B2-A7E33C910F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0F7F8-61E0-4D06-9FF8-30D499EA474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1446,6 +1446,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1457,12 +1463,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2075,7 +2075,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2127,107 +2127,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -4784,7 +4784,7 @@
         <v>72</v>
       </c>
       <c r="D34" s="48">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E34" s="79">
         <v>45093</v>
@@ -4860,7 +4860,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="48">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="79">
         <v>45093</v>
@@ -6091,17 +6091,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6295,6 +6295,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6582,26 +6602,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
@@ -6611,6 +6611,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6629,16 +6641,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0F7F8-61E0-4D06-9FF8-30D499EA474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF3378-AEEE-4E1C-8EBF-FF4EBB56BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -153,9 +153,6 @@
     <t>開始</t>
   </si>
   <si>
-    <t>日付</t>
-  </si>
-  <si>
     <t>終了</t>
   </si>
   <si>
@@ -363,6 +360,10 @@
   </si>
   <si>
     <t>image</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1446,23 +1447,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2074,8 +2075,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="28"/>
@@ -2106,7 +2107,7 @@
       <c r="F1" s="30"/>
       <c r="H1" s="28"/>
       <c r="I1" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,107 +2128,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45096</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
-        <v>45089</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+        <v>45096</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
-        <v>45096</v>
-      </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+        <v>45103</v>
+      </c>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
-        <v>45103</v>
-      </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+        <v>45110</v>
+      </c>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
-        <v>45110</v>
-      </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+        <v>45117</v>
+      </c>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
-        <v>45117</v>
-      </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+        <v>45124</v>
+      </c>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
-        <v>45124</v>
-      </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+        <v>45131</v>
+      </c>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
-        <v>45131</v>
-      </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+        <v>45138</v>
+      </c>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
-        <v>45138</v>
-      </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+        <v>45145</v>
+      </c>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2241,227 +2242,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2469,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>24</v>
@@ -2481,11 +2482,11 @@
         <v>25</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="35" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
@@ -2784,7 +2785,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="37"/>
@@ -2865,11 +2866,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2946,11 +2947,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3025,11 +3026,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3104,11 +3105,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3247,11 +3248,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3320,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="41"/>
@@ -3399,11 +3400,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3478,11 +3479,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3555,11 +3556,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3632,11 +3633,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3709,11 +3710,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3782,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="44"/>
@@ -3859,11 +3860,11 @@
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45113</v>
+        <v>45116</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3936,11 +3937,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4013,11 +4014,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45124</v>
+        <v>45127</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4090,11 +4091,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45125</v>
+        <v>45128</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4167,11 +4168,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E24</f>
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45123</v>
+        <v>45126</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4240,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="47"/>
@@ -4311,10 +4312,10 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="48">
         <v>0.3</v>
@@ -4323,7 +4324,7 @@
         <v>45092</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38" t="e">
@@ -4390,17 +4391,19 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="79" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="79">
+        <v>45096</v>
       </c>
       <c r="F29" s="79" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="38" t="e">
@@ -4467,17 +4470,19 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="79" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="D30" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="79">
+        <v>45097</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38" t="e">
@@ -4544,19 +4549,19 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E31" s="79">
         <v>45092</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38" t="e">
@@ -4623,10 +4628,10 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="48">
         <v>1</v>
@@ -4702,10 +4707,10 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="48">
         <v>0.5</v>
@@ -4713,8 +4718,8 @@
       <c r="E33" s="79">
         <v>45093</v>
       </c>
-      <c r="F33" s="79">
-        <v>45096</v>
+      <c r="F33" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
@@ -4778,19 +4783,19 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E34" s="79">
         <v>45093</v>
       </c>
-      <c r="F34" s="79">
-        <v>45096</v>
+      <c r="F34" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
@@ -4854,19 +4859,19 @@
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E35" s="79">
         <v>45093</v>
       </c>
-      <c r="F35" s="79">
-        <v>45096</v>
+      <c r="F35" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
@@ -4930,10 +4935,10 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="79"/>
@@ -5000,10 +5005,10 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="79"/>
@@ -5070,10 +5075,10 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="79"/>
@@ -5140,10 +5145,10 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="79"/>
@@ -5210,10 +5215,10 @@
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="79"/>
@@ -5282,7 +5287,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="85"/>
       <c r="D41" s="86"/>
@@ -5353,10 +5358,10 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="92" t="s">
         <v>49</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>50</v>
       </c>
       <c r="D42" s="90">
         <v>0</v>
@@ -5425,10 +5430,10 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="90">
         <v>0</v>
@@ -5497,10 +5502,10 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="92" t="s">
         <v>52</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>53</v>
       </c>
       <c r="D44" s="90">
         <v>0.5</v>
@@ -5573,10 +5578,10 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="92" t="s">
         <v>54</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>55</v>
       </c>
       <c r="D45" s="90">
         <v>0.9</v>
@@ -5649,10 +5654,10 @@
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="90">
         <v>0</v>
@@ -5721,10 +5726,10 @@
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="90">
         <v>0</v>
@@ -5793,10 +5798,10 @@
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="90">
         <v>0</v>
@@ -5865,10 +5870,10 @@
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="90">
         <v>0</v>
@@ -5937,10 +5942,10 @@
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="90">
         <v>0</v>
@@ -6091,17 +6096,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6193,79 +6198,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:2" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="56" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="64" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6286,35 +6291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6602,27 +6578,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6641,4 +6626,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF3378-AEEE-4E1C-8EBF-FF4EBB56BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A9DAD-98A6-42FE-8FF1-CCEB7E12EB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1447,6 +1447,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1458,12 +1464,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2075,8 +2075,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F30"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2128,107 +2128,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45097</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3026,11 +3026,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3105,11 +3105,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3248,11 +3248,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3400,11 +3400,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3479,11 +3479,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3556,11 +3556,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3633,11 +3633,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3710,11 +3710,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3860,11 +3860,11 @@
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3937,11 +3937,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4014,11 +4014,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4091,11 +4091,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4168,11 +4168,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E24</f>
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4318,7 +4318,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E28" s="79">
         <v>45092</v>
@@ -4479,7 +4479,7 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="79">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="F30" s="79" t="s">
         <v>82</v>
@@ -4713,7 +4713,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="48">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E33" s="79">
         <v>45093</v>
@@ -6096,17 +6096,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6291,6 +6291,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6578,36 +6607,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6626,24 +6646,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A9DAD-98A6-42FE-8FF1-CCEB7E12EB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3FC53-3004-4413-BE80-9D3621F2B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -1447,23 +1447,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2075,8 +2075,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2128,107 +2128,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45097</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45098</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3026,11 +3026,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3105,11 +3105,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3248,11 +3248,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3400,11 +3400,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3479,11 +3479,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3556,11 +3556,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3633,11 +3633,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3710,11 +3710,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3860,11 +3860,11 @@
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3937,11 +3937,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4014,11 +4014,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4091,11 +4091,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4168,11 +4168,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E24</f>
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4318,7 +4318,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="48">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E28" s="79">
         <v>45092</v>
@@ -4397,7 +4397,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E29" s="79">
         <v>45096</v>
@@ -4476,7 +4476,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="79">
         <v>45096</v>
@@ -4713,13 +4713,13 @@
         <v>55</v>
       </c>
       <c r="D33" s="48">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E33" s="79">
         <v>45093</v>
       </c>
-      <c r="F33" s="79" t="s">
-        <v>82</v>
+      <c r="F33" s="79">
+        <v>45098</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
@@ -4789,13 +4789,13 @@
         <v>71</v>
       </c>
       <c r="D34" s="48">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E34" s="79">
         <v>45093</v>
       </c>
-      <c r="F34" s="79" t="s">
-        <v>82</v>
+      <c r="F34" s="79">
+        <v>45098</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
@@ -4865,13 +4865,13 @@
         <v>72</v>
       </c>
       <c r="D35" s="48">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E35" s="79">
         <v>45093</v>
       </c>
-      <c r="F35" s="79" t="s">
-        <v>82</v>
+      <c r="F35" s="79">
+        <v>45098</v>
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
@@ -5150,9 +5150,15 @@
       <c r="C39" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
+      <c r="D39" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="E39" s="79">
+        <v>45098</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>82</v>
+      </c>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="5"/>
@@ -6096,17 +6102,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6291,35 +6297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6607,27 +6584,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6646,4 +6632,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3FC53-3004-4413-BE80-9D3621F2B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA2DE9-DC68-4BEF-8747-2ACC07F0E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -360,10 +360,6 @@
   </si>
   <si>
     <t>image</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1447,6 +1443,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1458,12 +1460,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2075,8 +2071,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2128,107 +2124,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45104</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45096</v>
-      </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+        <v>45103</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>45103</v>
-      </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+        <v>45110</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>45110</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+        <v>45117</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>45117</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+        <v>45124</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>45124</v>
-      </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+        <v>45131</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>45131</v>
-      </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+        <v>45138</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>45138</v>
-      </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+        <v>45145</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>45145</v>
-      </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+        <v>45152</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2242,227 +2238,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45145</v>
+        <v>45152</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45146</v>
+        <v>45153</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45151</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2866,11 +2862,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45101</v>
+        <v>45107</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2947,11 +2943,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45101</v>
+        <v>45107</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3026,11 +3022,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3105,11 +3101,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45112</v>
+        <v>45118</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3248,11 +3244,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45102</v>
+        <v>45108</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3400,11 +3396,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3479,11 +3475,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45105</v>
+        <v>45111</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3556,11 +3552,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45113</v>
+        <v>45119</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3633,11 +3629,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45112</v>
+        <v>45118</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3710,11 +3706,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45113</v>
+        <v>45119</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3860,11 +3856,11 @@
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
-        <v>45113</v>
+        <v>45119</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45118</v>
+        <v>45124</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3937,11 +3933,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
-        <v>45119</v>
+        <v>45125</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45123</v>
+        <v>45129</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4014,11 +4010,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45129</v>
+        <v>45135</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4091,11 +4087,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45130</v>
+        <v>45136</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45134</v>
+        <v>45140</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4168,11 +4164,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E24</f>
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45128</v>
+        <v>45134</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4318,18 +4314,18 @@
         <v>66</v>
       </c>
       <c r="D28" s="48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="79">
         <v>45092</v>
       </c>
-      <c r="F28" s="79" t="s">
-        <v>82</v>
+      <c r="F28" s="79">
+        <v>45104</v>
       </c>
       <c r="G28" s="38"/>
-      <c r="H28" s="38" t="e">
+      <c r="H28" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>13</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4397,18 +4393,18 @@
         <v>67</v>
       </c>
       <c r="D29" s="48">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="79">
         <v>45096</v>
       </c>
-      <c r="F29" s="79" t="s">
-        <v>82</v>
+      <c r="F29" s="79">
+        <v>45104</v>
       </c>
       <c r="G29" s="38"/>
-      <c r="H29" s="38" t="e">
+      <c r="H29" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4476,18 +4472,18 @@
         <v>68</v>
       </c>
       <c r="D30" s="48">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="79">
         <v>45096</v>
       </c>
-      <c r="F30" s="79" t="s">
-        <v>82</v>
+      <c r="F30" s="79">
+        <v>45105</v>
       </c>
       <c r="G30" s="38"/>
-      <c r="H30" s="38" t="e">
+      <c r="H30" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4555,18 +4551,18 @@
         <v>69</v>
       </c>
       <c r="D31" s="48">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="79">
         <v>45092</v>
       </c>
-      <c r="F31" s="79" t="s">
-        <v>82</v>
+      <c r="F31" s="79">
+        <v>45104</v>
       </c>
       <c r="G31" s="38"/>
-      <c r="H31" s="38" t="e">
+      <c r="H31" s="38">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>13</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4940,9 +4936,13 @@
       <c r="C36" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="48">
+        <v>0.7</v>
+      </c>
       <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="F36" s="79">
+        <v>45104</v>
+      </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="5"/>
@@ -5010,9 +5010,13 @@
       <c r="C37" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="48"/>
+      <c r="D37" s="48">
+        <v>1</v>
+      </c>
       <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="F37" s="79">
+        <v>45104</v>
+      </c>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="5"/>
@@ -5080,9 +5084,13 @@
       <c r="C38" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="48"/>
+      <c r="D38" s="48">
+        <v>1</v>
+      </c>
       <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
+      <c r="F38" s="79">
+        <v>45104</v>
+      </c>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="5"/>
@@ -5151,13 +5159,13 @@
         <v>76</v>
       </c>
       <c r="D39" s="48">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E39" s="79">
         <v>45098</v>
       </c>
-      <c r="F39" s="79" t="s">
-        <v>82</v>
+      <c r="F39" s="79">
+        <v>45105</v>
       </c>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
@@ -5228,7 +5236,9 @@
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
+      <c r="F40" s="79">
+        <v>45105</v>
+      </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -6102,17 +6112,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6297,6 +6307,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6584,36 +6623,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6632,24 +6662,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小嶋ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA2DE9-DC68-4BEF-8747-2ACC07F0E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22933A7-E075-4148-8510-B2D649323131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,23 +1443,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2071,8 +2071,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="67" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2124,107 +2124,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45106</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45103</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45110</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45117</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45124</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45131</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45138</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45145</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45152</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2862,11 +2862,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2943,11 +2943,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3101,11 +3101,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3244,11 +3244,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3396,11 +3396,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3475,11 +3475,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3552,11 +3552,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3629,11 +3629,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3706,11 +3706,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3856,11 +3856,11 @@
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3933,11 +3933,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45129</v>
+        <v>45131</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4010,11 +4010,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
-        <v>45130</v>
+        <v>45132</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45135</v>
+        <v>45137</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4087,11 +4087,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45136</v>
+        <v>45138</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4164,11 +4164,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E24</f>
-        <v>45130</v>
+        <v>45132</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45134</v>
+        <v>45136</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4472,7 +4472,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="79">
         <v>45096</v>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="79">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="F35" s="79">
         <v>45098</v>
@@ -4937,9 +4937,11 @@
         <v>73</v>
       </c>
       <c r="D36" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="E36" s="79"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="79">
+        <v>45098</v>
+      </c>
       <c r="F36" s="79">
         <v>45104</v>
       </c>
@@ -5013,7 +5015,9 @@
       <c r="D37" s="48">
         <v>1</v>
       </c>
-      <c r="E37" s="79"/>
+      <c r="E37" s="79">
+        <v>45098</v>
+      </c>
       <c r="F37" s="79">
         <v>45104</v>
       </c>
@@ -5087,7 +5091,9 @@
       <c r="D38" s="48">
         <v>1</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="79">
+        <v>45098</v>
+      </c>
       <c r="F38" s="79">
         <v>45104</v>
       </c>
@@ -5159,13 +5165,13 @@
         <v>76</v>
       </c>
       <c r="D39" s="48">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E39" s="79">
         <v>45098</v>
       </c>
       <c r="F39" s="79">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
@@ -6112,17 +6118,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6307,35 +6313,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6623,27 +6600,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6662,4 +6648,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>